--- a/person/王慧颖/缺陷报告.xlsx
+++ b/person/王慧颖/缺陷报告.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\WHY\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{877842B8-EC3A-4BC9-9F44-BC1461B573CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{089A4629-A37B-47FB-BD7E-159B19C7DB09}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="60">
   <si>
     <t>缺陷编号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -138,6 +138,130 @@
   </si>
   <si>
     <t>不登录时无法查看“我的”页面的信息并会闪退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际结果</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>在30秒内收到验证码并登录成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法在30s内收到验证码，有延迟，将收到的验证码输入之后点击登录会提示验证码错误</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击成功并实现页面跳转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法点击且无法实现页面跳转</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功显示数学或英语科目的错题</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改并提示30天内只能修改一次</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改并能显示新的昵称</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改并提示不能超过8个汉字</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法修改并提示不能超过16个字母</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改头像并显示新头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法上传成功并无法显示头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功拍照并提交新头像</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能够拍照但是头像无法上传成功</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功跳转并能够查看页面内容</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法跳转，没有显示</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能修改手机号并提示30天内只能修改一次手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改手机号并显示新的手机号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能修改并提示30天内只能修改一次密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功修改密码</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功跳转并提示请先登录</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法跳转并且APP会闪退</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、打开作业批家长端 2、点击我的3、返回</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功退出个人信息界面回到主页面</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>无法退出</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>王慧颖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改完个人信息无法正常退出</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -198,117 +322,49 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="20% - 着色 6" xfId="1" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="9">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -321,13 +377,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9037FF0A-A096-4335-8663-6B17D0A12B91}" name="表1" displayName="表1" ref="A1:D40" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D40" xr:uid="{A068B767-8046-456E-8C13-175131DD441F}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{819421BD-38B9-42A8-A4EF-504D4490753A}" name="缺陷编号" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{3F1E645C-6298-49D0-966A-5CD54A34C8D2}" name="缺陷标题" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{F610CD7A-A2CD-4258-937E-EE9812A434E5}" name="测试平台与浏览器" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{DA707E33-A0E5-42A4-98A0-E11E24F54B3E}" name="测试步骤" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9037FF0A-A096-4335-8663-6B17D0A12B91}" name="表1" displayName="表1" ref="A1:G40" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A1:G40" xr:uid="{A068B767-8046-456E-8C13-175131DD441F}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{819421BD-38B9-42A8-A4EF-504D4490753A}" name="缺陷编号" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{3F1E645C-6298-49D0-966A-5CD54A34C8D2}" name="缺陷标题" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{F610CD7A-A2CD-4258-937E-EE9812A434E5}" name="测试平台与浏览器" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{DA707E33-A0E5-42A4-98A0-E11E24F54B3E}" name="测试步骤" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{CB5EB0BD-1E1D-46DB-A10E-1EFB15BDF1BE}" name="预期结果" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{4308DD45-2098-4D93-8614-36ED6C2EC2AA}" name="实际结果" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{3ABBD5FF-D553-4967-9574-A2A904CB3BEF}" name="负责人" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -341,7 +400,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CCE8CF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -596,50 +655,70 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="20.33203125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+      <c r="E1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -649,11 +728,20 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -663,11 +751,20 @@
       <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -677,11 +774,20 @@
       <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -691,11 +797,20 @@
       <c r="C6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -705,11 +820,20 @@
       <c r="C7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -719,11 +843,20 @@
       <c r="C8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -733,11 +866,20 @@
       <c r="C9" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -747,11 +889,20 @@
       <c r="C10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -761,11 +912,20 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D11" s="2" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -775,101 +935,64 @@
       <c r="C12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="D12" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
